--- a/utils/families.xlsx
+++ b/utils/families.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crosario\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mebc/Desktop/seleccion-padres-BBQS-svr/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{811747C7-8F9B-4EBA-9A4B-DC499907A5FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7AA0F64-BBF6-554C-8EFC-D5C4E77FB704}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="15375" windowHeight="7875" xr2:uid="{E62357E6-3704-44C1-B74F-D27269B6180A}"/>
+    <workbookView xWindow="1180" yWindow="1180" windowWidth="15380" windowHeight="7880" activeTab="1" xr2:uid="{E62357E6-3704-44C1-B74F-D27269B6180A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="familias" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -2045,6 +2046,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEA06EFA-96F0-964E-8F97-81A9D7806E77}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCF71E68-0C91-4A2F-B3DD-0FD6270FBA91}">
   <dimension ref="A1:B611"/>
   <sheetViews>
@@ -2052,13 +2065,13 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2066,7 +2079,7 @@
         <v>1325923</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2074,7 +2087,7 @@
         <v>1325974</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2082,7 +2095,7 @@
         <v>1325918</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2090,7 +2103,7 @@
         <v>1325834</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2098,7 +2111,7 @@
         <v>1325807</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2106,7 +2119,7 @@
         <v>1325919</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2114,7 +2127,7 @@
         <v>1325877</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2122,7 +2135,7 @@
         <v>1325954</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2130,7 +2143,7 @@
         <v>1325924</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2138,7 +2151,7 @@
         <v>1325920</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2146,7 +2159,7 @@
         <v>1325912</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2154,7 +2167,7 @@
         <v>1325882</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2162,7 +2175,7 @@
         <v>1325899</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2170,7 +2183,7 @@
         <v>1325939</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2178,7 +2191,7 @@
         <v>1325809</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2186,7 +2199,7 @@
         <v>1325932</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2207,7 @@
         <v>1325896</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2202,7 +2215,7 @@
         <v>1325911</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2223,7 @@
         <v>1325803</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2218,7 +2231,7 @@
         <v>1325857</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2226,7 +2239,7 @@
         <v>1325856</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2234,7 +2247,7 @@
         <v>1325853</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2242,7 +2255,7 @@
         <v>1325926</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2250,7 +2263,7 @@
         <v>1325867</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2258,7 +2271,7 @@
         <v>1325903</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2266,7 +2279,7 @@
         <v>1325811</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2274,7 +2287,7 @@
         <v>1325889</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2282,7 +2295,7 @@
         <v>1325917</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2290,7 +2303,7 @@
         <v>1325883</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2298,7 +2311,7 @@
         <v>1325808</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2306,7 +2319,7 @@
         <v>1325865</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2314,7 +2327,7 @@
         <v>1325895</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2322,7 +2335,7 @@
         <v>1325860</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2330,7 +2343,7 @@
         <v>1325839</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2338,7 +2351,7 @@
         <v>1325900</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2346,7 +2359,7 @@
         <v>1325858</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2354,7 +2367,7 @@
         <v>1325831</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2362,7 +2375,7 @@
         <v>1325869</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2370,7 +2383,7 @@
         <v>1325875</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2378,7 +2391,7 @@
         <v>1325910</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2386,7 +2399,7 @@
         <v>1325851</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2394,7 +2407,7 @@
         <v>1325866</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2402,7 +2415,7 @@
         <v>1325861</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2410,7 +2423,7 @@
         <v>1325922</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2418,7 +2431,7 @@
         <v>1325925</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2426,7 +2439,7 @@
         <v>1325830</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2434,7 +2447,7 @@
         <v>1325849</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2442,7 +2455,7 @@
         <v>1325815</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2450,7 +2463,7 @@
         <v>1325859</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2458,7 +2471,7 @@
         <v>1325879</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2466,7 +2479,7 @@
         <v>1325878</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2474,7 +2487,7 @@
         <v>1325824</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2482,7 +2495,7 @@
         <v>1325836</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -2490,7 +2503,7 @@
         <v>1325962</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -2498,7 +2511,7 @@
         <v>1325904</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -2506,7 +2519,7 @@
         <v>1325819</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -2514,7 +2527,7 @@
         <v>1325863</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -2522,7 +2535,7 @@
         <v>1325955</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -2530,7 +2543,7 @@
         <v>1325888</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -2538,7 +2551,7 @@
         <v>1325913</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -2546,7 +2559,7 @@
         <v>1325898</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -2554,7 +2567,7 @@
         <v>1325970</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -2562,7 +2575,7 @@
         <v>1325872</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -2570,7 +2583,7 @@
         <v>1325814</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -2578,7 +2591,7 @@
         <v>1325966</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -2586,7 +2599,7 @@
         <v>1325850</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -2594,7 +2607,7 @@
         <v>1325885</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -2602,7 +2615,7 @@
         <v>1325897</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2610,7 +2623,7 @@
         <v>1325931</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +2631,7 @@
         <v>1325965</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2626,7 +2639,7 @@
         <v>1325927</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2634,7 +2647,7 @@
         <v>1325909</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2642,7 +2655,7 @@
         <v>1325945</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2650,7 +2663,7 @@
         <v>1325873</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>74</v>
       </c>
@@ -2658,7 +2671,7 @@
         <v>1325826</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>75</v>
       </c>
@@ -2666,7 +2679,7 @@
         <v>1325868</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>76</v>
       </c>
@@ -2674,7 +2687,7 @@
         <v>1325854</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>77</v>
       </c>
@@ -2682,7 +2695,7 @@
         <v>1325820</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>78</v>
       </c>
@@ -2690,7 +2703,7 @@
         <v>1325967</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>79</v>
       </c>
@@ -2698,7 +2711,7 @@
         <v>1325976</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>80</v>
       </c>
@@ -2706,7 +2719,7 @@
         <v>1325874</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>81</v>
       </c>
@@ -2714,7 +2727,7 @@
         <v>1325862</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>82</v>
       </c>
@@ -2722,7 +2735,7 @@
         <v>1325876</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>83</v>
       </c>
@@ -2730,7 +2743,7 @@
         <v>1325886</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>84</v>
       </c>
@@ -2738,7 +2751,7 @@
         <v>1325841</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>85</v>
       </c>
@@ -2746,7 +2759,7 @@
         <v>1325847</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>86</v>
       </c>
@@ -2754,7 +2767,7 @@
         <v>1325953</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>87</v>
       </c>
@@ -2762,7 +2775,7 @@
         <v>1325958</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -2770,7 +2783,7 @@
         <v>1325968</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>89</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>1325987</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>90</v>
       </c>
@@ -2786,7 +2799,7 @@
         <v>1325846</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>91</v>
       </c>
@@ -2794,7 +2807,7 @@
         <v>1325907</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>92</v>
       </c>
@@ -2802,7 +2815,7 @@
         <v>1325908</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>93</v>
       </c>
@@ -2810,7 +2823,7 @@
         <v>1325902</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>94</v>
       </c>
@@ -2818,7 +2831,7 @@
         <v>1325969</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>95</v>
       </c>
@@ -2826,7 +2839,7 @@
         <v>1325864</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>96</v>
       </c>
@@ -2834,7 +2847,7 @@
         <v>1325812</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>97</v>
       </c>
@@ -2842,7 +2855,7 @@
         <v>1325973</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>28</v>
       </c>
@@ -2850,7 +2863,7 @@
         <v>1325884</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2858,7 +2871,7 @@
         <v>1325893</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>61</v>
       </c>
@@ -2866,7 +2879,7 @@
         <v>1325971</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>99</v>
       </c>
@@ -2874,7 +2887,7 @@
         <v>1325852</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>100</v>
       </c>
@@ -2882,7 +2895,7 @@
         <v>1325928</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>101</v>
       </c>
@@ -2890,7 +2903,7 @@
         <v>1325933</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -2898,7 +2911,7 @@
         <v>1325640</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>103</v>
       </c>
@@ -2906,7 +2919,7 @@
         <v>1325586</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>104</v>
       </c>
@@ -2914,7 +2927,7 @@
         <v>1325635</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>105</v>
       </c>
@@ -2922,7 +2935,7 @@
         <v>1325598</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>106</v>
       </c>
@@ -2930,7 +2943,7 @@
         <v>1325685</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>107</v>
       </c>
@@ -2938,7 +2951,7 @@
         <v>1325621</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>108</v>
       </c>
@@ -2946,7 +2959,7 @@
         <v>1325632</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>109</v>
       </c>
@@ -2954,7 +2967,7 @@
         <v>1325660</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>110</v>
       </c>
@@ -2962,7 +2975,7 @@
         <v>1325694</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>111</v>
       </c>
@@ -2970,7 +2983,7 @@
         <v>1325592</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>112</v>
       </c>
@@ -2978,7 +2991,7 @@
         <v>1325659</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>113</v>
       </c>
@@ -2986,7 +2999,7 @@
         <v>1325637</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>114</v>
       </c>
@@ -2994,7 +3007,7 @@
         <v>1325730</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>115</v>
       </c>
@@ -3002,7 +3015,7 @@
         <v>1325661</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>116</v>
       </c>
@@ -3010,7 +3023,7 @@
         <v>1325722</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>117</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>1325638</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>118</v>
       </c>
@@ -3026,7 +3039,7 @@
         <v>1325658</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>119</v>
       </c>
@@ -3034,7 +3047,7 @@
         <v>1325681</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>120</v>
       </c>
@@ -3042,7 +3055,7 @@
         <v>1325779</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>121</v>
       </c>
@@ -3050,7 +3063,7 @@
         <v>1325662</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>122</v>
       </c>
@@ -3058,7 +3071,7 @@
         <v>1325676</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>123</v>
       </c>
@@ -3066,7 +3079,7 @@
         <v>1325605</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>124</v>
       </c>
@@ -3074,7 +3087,7 @@
         <v>1325618</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>125</v>
       </c>
@@ -3082,7 +3095,7 @@
         <v>1325701</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>126</v>
       </c>
@@ -3090,7 +3103,7 @@
         <v>1325675</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>127</v>
       </c>
@@ -3098,7 +3111,7 @@
         <v>1325656</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>128</v>
       </c>
@@ -3106,7 +3119,7 @@
         <v>1325612</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>129</v>
       </c>
@@ -3114,7 +3127,7 @@
         <v>1325646</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>130</v>
       </c>
@@ -3122,7 +3135,7 @@
         <v>1325595</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>131</v>
       </c>
@@ -3130,7 +3143,7 @@
         <v>1325649</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>132</v>
       </c>
@@ -3138,7 +3151,7 @@
         <v>1325671</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>133</v>
       </c>
@@ -3146,7 +3159,7 @@
         <v>1325634</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>134</v>
       </c>
@@ -3154,7 +3167,7 @@
         <v>1325666</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>135</v>
       </c>
@@ -3162,7 +3175,7 @@
         <v>1325740</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>136</v>
       </c>
@@ -3170,7 +3183,7 @@
         <v>1325736</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>74</v>
       </c>
@@ -3178,7 +3191,7 @@
         <v>1325620</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>137</v>
       </c>
@@ -3186,7 +3199,7 @@
         <v>1325717</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>138</v>
       </c>
@@ -3194,7 +3207,7 @@
         <v>1325711</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>139</v>
       </c>
@@ -3202,7 +3215,7 @@
         <v>1325584</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>140</v>
       </c>
@@ -3210,7 +3223,7 @@
         <v>1325700</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>141</v>
       </c>
@@ -3218,7 +3231,7 @@
         <v>1325645</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>142</v>
       </c>
@@ -3226,7 +3239,7 @@
         <v>1325695</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>143</v>
       </c>
@@ -3234,7 +3247,7 @@
         <v>1325665</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>144</v>
       </c>
@@ -3242,7 +3255,7 @@
         <v>1325601</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>145</v>
       </c>
@@ -3250,7 +3263,7 @@
         <v>1325721</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>146</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>1325585</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>147</v>
       </c>
@@ -3266,7 +3279,7 @@
         <v>1325651</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>148</v>
       </c>
@@ -3274,7 +3287,7 @@
         <v>1325579</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>149</v>
       </c>
@@ -3282,7 +3295,7 @@
         <v>1325654</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>150</v>
       </c>
@@ -3290,7 +3303,7 @@
         <v>1325683</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>151</v>
       </c>
@@ -3298,7 +3311,7 @@
         <v>1325673</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>152</v>
       </c>
@@ -3306,7 +3319,7 @@
         <v>1325796</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>153</v>
       </c>
@@ -3314,7 +3327,7 @@
         <v>1325648</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>154</v>
       </c>
@@ -3322,7 +3335,7 @@
         <v>1325670</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>155</v>
       </c>
@@ -3330,7 +3343,7 @@
         <v>1325682</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>156</v>
       </c>
@@ -3338,7 +3351,7 @@
         <v>1325650</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>157</v>
       </c>
@@ -3346,7 +3359,7 @@
         <v>1325642</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>158</v>
       </c>
@@ -3354,7 +3367,7 @@
         <v>1325686</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>159</v>
       </c>
@@ -3362,7 +3375,7 @@
         <v>1325616</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>160</v>
       </c>
@@ -3370,7 +3383,7 @@
         <v>1325641</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>38</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>1325657</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>161</v>
       </c>
@@ -3386,7 +3399,7 @@
         <v>1325668</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>162</v>
       </c>
@@ -3394,7 +3407,7 @@
         <v>1325731</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>163</v>
       </c>
@@ -3402,7 +3415,7 @@
         <v>1325610</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>164</v>
       </c>
@@ -3410,7 +3423,7 @@
         <v>1325709</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>165</v>
       </c>
@@ -3418,7 +3431,7 @@
         <v>1325636</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>166</v>
       </c>
@@ -3426,7 +3439,7 @@
         <v>1325613</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>167</v>
       </c>
@@ -3434,7 +3447,7 @@
         <v>1325707</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>168</v>
       </c>
@@ -3442,7 +3455,7 @@
         <v>1325667</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>169</v>
       </c>
@@ -3450,7 +3463,7 @@
         <v>1325677</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>170</v>
       </c>
@@ -3458,7 +3471,7 @@
         <v>1325597</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>101</v>
       </c>
@@ -3466,7 +3479,7 @@
         <v>1325690</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>171</v>
       </c>
@@ -3474,7 +3487,7 @@
         <v>1325718</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>172</v>
       </c>
@@ -3482,7 +3495,7 @@
         <v>1325604</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>173</v>
       </c>
@@ -3490,7 +3503,7 @@
         <v>1325653</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>174</v>
       </c>
@@ -3498,7 +3511,7 @@
         <v>1325614</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>175</v>
       </c>
@@ -3506,7 +3519,7 @@
         <v>1325630</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>176</v>
       </c>
@@ -3514,7 +3527,7 @@
         <v>1325672</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>177</v>
       </c>
@@ -3522,7 +3535,7 @@
         <v>1325714</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>178</v>
       </c>
@@ -3530,7 +3543,7 @@
         <v>1325644</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>179</v>
       </c>
@@ -3538,7 +3551,7 @@
         <v>1325669</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>180</v>
       </c>
@@ -3546,7 +3559,7 @@
         <v>1325629</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>181</v>
       </c>
@@ -3554,7 +3567,7 @@
         <v>1325710</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>182</v>
       </c>
@@ -3562,7 +3575,7 @@
         <v>1325688</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>183</v>
       </c>
@@ -3570,7 +3583,7 @@
         <v>1325602</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>184</v>
       </c>
@@ -3578,7 +3591,7 @@
         <v>1325678</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>185</v>
       </c>
@@ -3586,7 +3599,7 @@
         <v>1325663</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>186</v>
       </c>
@@ -3594,7 +3607,7 @@
         <v>1325747</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>187</v>
       </c>
@@ -3602,7 +3615,7 @@
         <v>1325706</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>188</v>
       </c>
@@ -3610,7 +3623,7 @@
         <v>1325703</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>189</v>
       </c>
@@ -3618,7 +3631,7 @@
         <v>1325789</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>190</v>
       </c>
@@ -3626,7 +3639,7 @@
         <v>1325593</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>191</v>
       </c>
@@ -3634,7 +3647,7 @@
         <v>1325664</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>192</v>
       </c>
@@ -3642,7 +3655,7 @@
         <v>1325825</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>193</v>
       </c>
@@ -3650,7 +3663,7 @@
         <v>1325691</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>194</v>
       </c>
@@ -3658,7 +3671,7 @@
         <v>1325697</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>195</v>
       </c>
@@ -3666,7 +3679,7 @@
         <v>1325684</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>196</v>
       </c>
@@ -3674,7 +3687,7 @@
         <v>1325577</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>197</v>
       </c>
@@ -3682,7 +3695,7 @@
         <v>1325647</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>198</v>
       </c>
@@ -3690,7 +3703,7 @@
         <v>1325611</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>199</v>
       </c>
@@ -3698,7 +3711,7 @@
         <v>1325713</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>200</v>
       </c>
@@ -3706,7 +3719,7 @@
         <v>1325674</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>201</v>
       </c>
@@ -3714,7 +3727,7 @@
         <v>1325639</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>202</v>
       </c>
@@ -3722,7 +3735,7 @@
         <v>1325643</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>203</v>
       </c>
@@ -3730,7 +3743,7 @@
         <v>1325380</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>204</v>
       </c>
@@ -3738,7 +3751,7 @@
         <v>1325396</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>205</v>
       </c>
@@ -3746,7 +3759,7 @@
         <v>1325427</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>206</v>
       </c>
@@ -3754,7 +3767,7 @@
         <v>1325422</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>207</v>
       </c>
@@ -3762,7 +3775,7 @@
         <v>1325468</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>208</v>
       </c>
@@ -3770,7 +3783,7 @@
         <v>1325454</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>209</v>
       </c>
@@ -3778,7 +3791,7 @@
         <v>1325336</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>210</v>
       </c>
@@ -3786,7 +3799,7 @@
         <v>1325444</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>211</v>
       </c>
@@ -3794,7 +3807,7 @@
         <v>1325429</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>212</v>
       </c>
@@ -3802,7 +3815,7 @@
         <v>1325441</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>213</v>
       </c>
@@ -3810,7 +3823,7 @@
         <v>1325377</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>214</v>
       </c>
@@ -3818,7 +3831,7 @@
         <v>1325362</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>215</v>
       </c>
@@ -3826,7 +3839,7 @@
         <v>1325400</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>216</v>
       </c>
@@ -3834,7 +3847,7 @@
         <v>1325452</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>217</v>
       </c>
@@ -3842,7 +3855,7 @@
         <v>1325421</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>218</v>
       </c>
@@ -3850,7 +3863,7 @@
         <v>1325391</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>219</v>
       </c>
@@ -3858,7 +3871,7 @@
         <v>1325417</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>220</v>
       </c>
@@ -3866,7 +3879,7 @@
         <v>1325442</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>18</v>
       </c>
@@ -3874,7 +3887,7 @@
         <v>1325625</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>221</v>
       </c>
@@ -3882,7 +3895,7 @@
         <v>1325342</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>222</v>
       </c>
@@ -3890,7 +3903,7 @@
         <v>1325472</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>223</v>
       </c>
@@ -3898,7 +3911,7 @@
         <v>1325390</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>224</v>
       </c>
@@ -3906,7 +3919,7 @@
         <v>1325466</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>225</v>
       </c>
@@ -3914,7 +3927,7 @@
         <v>1325477</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>226</v>
       </c>
@@ -3922,7 +3935,7 @@
         <v>1325416</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>227</v>
       </c>
@@ -3930,7 +3943,7 @@
         <v>1325434</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>228</v>
       </c>
@@ -3938,7 +3951,7 @@
         <v>1325431</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>229</v>
       </c>
@@ -3946,7 +3959,7 @@
         <v>1325410</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>230</v>
       </c>
@@ -3954,7 +3967,7 @@
         <v>1325462</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>231</v>
       </c>
@@ -3962,7 +3975,7 @@
         <v>1325464</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>232</v>
       </c>
@@ -3970,7 +3983,7 @@
         <v>1325461</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>233</v>
       </c>
@@ -3978,7 +3991,7 @@
         <v>1325388</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>234</v>
       </c>
@@ -3986,7 +3999,7 @@
         <v>1325395</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>235</v>
       </c>
@@ -3994,7 +4007,7 @@
         <v>1325424</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>236</v>
       </c>
@@ -4002,7 +4015,7 @@
         <v>1325402</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>237</v>
       </c>
@@ -4010,7 +4023,7 @@
         <v>1325492</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>238</v>
       </c>
@@ -4018,7 +4031,7 @@
         <v>1325457</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>65</v>
       </c>
@@ -4026,7 +4039,7 @@
         <v>1325394</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>239</v>
       </c>
@@ -4034,7 +4047,7 @@
         <v>1325562</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>240</v>
       </c>
@@ -4042,7 +4055,7 @@
         <v>1325443</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>241</v>
       </c>
@@ -4050,7 +4063,7 @@
         <v>1325413</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>242</v>
       </c>
@@ -4058,7 +4071,7 @@
         <v>1325419</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>243</v>
       </c>
@@ -4066,7 +4079,7 @@
         <v>1325487</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>244</v>
       </c>
@@ -4074,7 +4087,7 @@
         <v>1325337</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>138</v>
       </c>
@@ -4082,7 +4095,7 @@
         <v>1325404</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>245</v>
       </c>
@@ -4090,7 +4103,7 @@
         <v>1325766</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>246</v>
       </c>
@@ -4098,7 +4111,7 @@
         <v>1325471</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>247</v>
       </c>
@@ -4106,7 +4119,7 @@
         <v>1325408</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>248</v>
       </c>
@@ -4114,7 +4127,7 @@
         <v>1325486</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>249</v>
       </c>
@@ -4122,7 +4135,7 @@
         <v>1325365</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>104</v>
       </c>
@@ -4130,7 +4143,7 @@
         <v>1325415</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>250</v>
       </c>
@@ -4138,7 +4151,7 @@
         <v>1325345</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>251</v>
       </c>
@@ -4146,7 +4159,7 @@
         <v>1325493</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>252</v>
       </c>
@@ -4154,7 +4167,7 @@
         <v>1325411</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>253</v>
       </c>
@@ -4162,7 +4175,7 @@
         <v>1325469</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>254</v>
       </c>
@@ -4170,7 +4183,7 @@
         <v>1325495</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>255</v>
       </c>
@@ -4178,7 +4191,7 @@
         <v>1325430</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>256</v>
       </c>
@@ -4186,7 +4199,7 @@
         <v>1325344</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>257</v>
       </c>
@@ -4194,7 +4207,7 @@
         <v>1325451</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>258</v>
       </c>
@@ -4202,7 +4215,7 @@
         <v>1325448</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>259</v>
       </c>
@@ -4210,7 +4223,7 @@
         <v>1325456</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>260</v>
       </c>
@@ -4218,7 +4231,7 @@
         <v>1325338</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>260</v>
       </c>
@@ -4226,7 +4239,7 @@
         <v>1325338</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>261</v>
       </c>
@@ -4234,7 +4247,7 @@
         <v>1325378</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>262</v>
       </c>
@@ -4242,7 +4255,7 @@
         <v>1325507</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>263</v>
       </c>
@@ -4250,7 +4263,7 @@
         <v>1325351</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>53</v>
       </c>
@@ -4258,7 +4271,7 @@
         <v>1325496</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>264</v>
       </c>
@@ -4266,7 +4279,7 @@
         <v>1325403</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>265</v>
       </c>
@@ -4274,7 +4287,7 @@
         <v>1325473</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>266</v>
       </c>
@@ -4282,7 +4295,7 @@
         <v>1325490</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>267</v>
       </c>
@@ -4290,7 +4303,7 @@
         <v>1325407</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>268</v>
       </c>
@@ -4298,7 +4311,7 @@
         <v>1325449</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>269</v>
       </c>
@@ -4306,7 +4319,7 @@
         <v>1325387</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>270</v>
       </c>
@@ -4314,7 +4327,7 @@
         <v>1325405</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>271</v>
       </c>
@@ -4322,7 +4335,7 @@
         <v>1325447</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>272</v>
       </c>
@@ -4330,7 +4343,7 @@
         <v>1325398</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>273</v>
       </c>
@@ -4338,7 +4351,7 @@
         <v>1325440</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>274</v>
       </c>
@@ -4346,7 +4359,7 @@
         <v>1325382</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>275</v>
       </c>
@@ -4354,7 +4367,7 @@
         <v>1325425</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>276</v>
       </c>
@@ -4362,7 +4375,7 @@
         <v>1325414</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>277</v>
       </c>
@@ -4370,7 +4383,7 @@
         <v>1325393</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>278</v>
       </c>
@@ -4378,7 +4391,7 @@
         <v>1325406</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>279</v>
       </c>
@@ -4386,7 +4399,7 @@
         <v>1325439</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>280</v>
       </c>
@@ -4394,7 +4407,7 @@
         <v>1325412</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>281</v>
       </c>
@@ -4402,7 +4415,7 @@
         <v>1325465</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -4410,7 +4423,7 @@
         <v>1325914</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>283</v>
       </c>
@@ -4418,7 +4431,7 @@
         <v>1325423</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>284</v>
       </c>
@@ -4426,7 +4439,7 @@
         <v>1325460</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>3</v>
       </c>
@@ -4434,7 +4447,7 @@
         <v>1325435</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>122</v>
       </c>
@@ -4442,7 +4455,7 @@
         <v>1325355</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>285</v>
       </c>
@@ -4450,7 +4463,7 @@
         <v>1325399</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>286</v>
       </c>
@@ -4458,7 +4471,7 @@
         <v>1325478</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>287</v>
       </c>
@@ -4466,7 +4479,7 @@
         <v>1325459</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>288</v>
       </c>
@@ -4474,7 +4487,7 @@
         <v>1325367</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>289</v>
       </c>
@@ -4482,7 +4495,7 @@
         <v>1325409</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>290</v>
       </c>
@@ -4490,7 +4503,7 @@
         <v>1325428</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>291</v>
       </c>
@@ -4498,7 +4511,7 @@
         <v>1325418</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>292</v>
       </c>
@@ -4506,7 +4519,7 @@
         <v>1325438</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>293</v>
       </c>
@@ -4514,7 +4527,7 @@
         <v>1325385</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>294</v>
       </c>
@@ -4522,7 +4535,7 @@
         <v>1325420</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>295</v>
       </c>
@@ -4530,7 +4543,7 @@
         <v>1325498</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>296</v>
       </c>
@@ -4538,7 +4551,7 @@
         <v>1325179</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>297</v>
       </c>
@@ -4546,7 +4559,7 @@
         <v>1325156</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>298</v>
       </c>
@@ -4554,7 +4567,7 @@
         <v>1325188</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>299</v>
       </c>
@@ -4562,7 +4575,7 @@
         <v>1326014</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>300</v>
       </c>
@@ -4570,7 +4583,7 @@
         <v>1325095</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>301</v>
       </c>
@@ -4578,7 +4591,7 @@
         <v>1325221</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>302</v>
       </c>
@@ -4586,7 +4599,7 @@
         <v>1325203</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>303</v>
       </c>
@@ -4594,7 +4607,7 @@
         <v>1325195</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -4602,7 +4615,7 @@
         <v>1325171</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>304</v>
       </c>
@@ -4610,7 +4623,7 @@
         <v>1325180</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>305</v>
       </c>
@@ -4618,7 +4631,7 @@
         <v>1325105</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>306</v>
       </c>
@@ -4626,7 +4639,7 @@
         <v>1325140</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>307</v>
       </c>
@@ -4634,7 +4647,7 @@
         <v>1325216</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>308</v>
       </c>
@@ -4642,7 +4655,7 @@
         <v>1325268</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>35</v>
       </c>
@@ -4650,7 +4663,7 @@
         <v>1325187</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>309</v>
       </c>
@@ -4658,7 +4671,7 @@
         <v>1325170</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>310</v>
       </c>
@@ -4666,7 +4679,7 @@
         <v>1325194</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>311</v>
       </c>
@@ -4674,7 +4687,7 @@
         <v>1325238</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>312</v>
       </c>
@@ -4682,7 +4695,7 @@
         <v>1325184</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>313</v>
       </c>
@@ -4690,7 +4703,7 @@
         <v>1325205</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>314</v>
       </c>
@@ -4698,7 +4711,7 @@
         <v>1325182</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>315</v>
       </c>
@@ -4706,7 +4719,7 @@
         <v>1325172</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>316</v>
       </c>
@@ -4714,7 +4727,7 @@
         <v>1325212</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>317</v>
       </c>
@@ -4722,7 +4735,7 @@
         <v>1325134</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>318</v>
       </c>
@@ -4730,7 +4743,7 @@
         <v>1325166</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>319</v>
       </c>
@@ -4738,7 +4751,7 @@
         <v>1325135</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>320</v>
       </c>
@@ -4746,7 +4759,7 @@
         <v>1325291</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>321</v>
       </c>
@@ -4754,7 +4767,7 @@
         <v>1325223</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>322</v>
       </c>
@@ -4762,7 +4775,7 @@
         <v>1325076</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>323</v>
       </c>
@@ -4770,7 +4783,7 @@
         <v>1325206</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>324</v>
       </c>
@@ -4778,7 +4791,7 @@
         <v>1325110</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>325</v>
       </c>
@@ -4786,7 +4799,7 @@
         <v>1325094</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>326</v>
       </c>
@@ -4794,7 +4807,7 @@
         <v>1325210</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>327</v>
       </c>
@@ -4802,7 +4815,7 @@
         <v>1325125</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>328</v>
       </c>
@@ -4810,7 +4823,7 @@
         <v>1325998</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>329</v>
       </c>
@@ -4818,7 +4831,7 @@
         <v>1325199</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>330</v>
       </c>
@@ -4826,7 +4839,7 @@
         <v>1325181</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>331</v>
       </c>
@@ -4834,7 +4847,7 @@
         <v>1325204</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>332</v>
       </c>
@@ -4842,7 +4855,7 @@
         <v>1325217</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>333</v>
       </c>
@@ -4850,7 +4863,7 @@
         <v>1325617</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>334</v>
       </c>
@@ -4858,7 +4871,7 @@
         <v>1325186</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>335</v>
       </c>
@@ -4866,7 +4879,7 @@
         <v>1325762</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>336</v>
       </c>
@@ -4874,7 +4887,7 @@
         <v>1325619</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>337</v>
       </c>
@@ -4882,7 +4895,7 @@
         <v>1325220</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>338</v>
       </c>
@@ -4890,7 +4903,7 @@
         <v>1325219</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>339</v>
       </c>
@@ -4898,7 +4911,7 @@
         <v>1325087</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>340</v>
       </c>
@@ -4906,7 +4919,7 @@
         <v>1325098</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>341</v>
       </c>
@@ -4914,7 +4927,7 @@
         <v>1325112</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>342</v>
       </c>
@@ -4922,7 +4935,7 @@
         <v>1325079</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>343</v>
       </c>
@@ -4930,7 +4943,7 @@
         <v>1325183</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>344</v>
       </c>
@@ -4938,7 +4951,7 @@
         <v>1325230</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>345</v>
       </c>
@@ -4946,7 +4959,7 @@
         <v>1325138</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>346</v>
       </c>
@@ -4954,7 +4967,7 @@
         <v>1325265</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>347</v>
       </c>
@@ -4962,7 +4975,7 @@
         <v>1325201</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>348</v>
       </c>
@@ -4970,7 +4983,7 @@
         <v>1325096</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>349</v>
       </c>
@@ -4978,7 +4991,7 @@
         <v>1325287</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>350</v>
       </c>
@@ -4986,7 +4999,7 @@
         <v>1325185</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>351</v>
       </c>
@@ -4994,7 +5007,7 @@
         <v>1325202</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>352</v>
       </c>
@@ -5002,7 +5015,7 @@
         <v>1325189</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>353</v>
       </c>
@@ -5010,7 +5023,7 @@
         <v>1325146</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>354</v>
       </c>
@@ -5018,7 +5031,7 @@
         <v>1325107</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>355</v>
       </c>
@@ -5026,7 +5039,7 @@
         <v>1325176</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>356</v>
       </c>
@@ -5034,7 +5047,7 @@
         <v>1325080</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>357</v>
       </c>
@@ -5042,7 +5055,7 @@
         <v>1325167</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>358</v>
       </c>
@@ -5050,7 +5063,7 @@
         <v>1325227</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>359</v>
       </c>
@@ -5058,7 +5071,7 @@
         <v>1325190</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>360</v>
       </c>
@@ -5066,7 +5079,7 @@
         <v>1325173</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>361</v>
       </c>
@@ -5074,7 +5087,7 @@
         <v>1325168</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>362</v>
       </c>
@@ -5082,7 +5095,7 @@
         <v>1325175</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>363</v>
       </c>
@@ -5090,7 +5103,7 @@
         <v>1325100</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>364</v>
       </c>
@@ -5098,7 +5111,7 @@
         <v>1325081</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>365</v>
       </c>
@@ -5106,7 +5119,7 @@
         <v>1325164</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>366</v>
       </c>
@@ -5114,7 +5127,7 @@
         <v>1325275</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>367</v>
       </c>
@@ -5122,7 +5135,7 @@
         <v>1325196</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>368</v>
       </c>
@@ -5130,7 +5143,7 @@
         <v>1325236</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>369</v>
       </c>
@@ -5138,7 +5151,7 @@
         <v>1325575</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>370</v>
       </c>
@@ -5146,7 +5159,7 @@
         <v>1325120</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>371</v>
       </c>
@@ -5154,7 +5167,7 @@
         <v>1325225</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>372</v>
       </c>
@@ -5162,7 +5175,7 @@
         <v>1325090</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>373</v>
       </c>
@@ -5170,7 +5183,7 @@
         <v>1325132</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>374</v>
       </c>
@@ -5178,7 +5191,7 @@
         <v>1325207</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>375</v>
       </c>
@@ -5186,7 +5199,7 @@
         <v>1325102</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>376</v>
       </c>
@@ -5194,7 +5207,7 @@
         <v>1325144</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>377</v>
       </c>
@@ -5202,7 +5215,7 @@
         <v>1325288</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>378</v>
       </c>
@@ -5210,7 +5223,7 @@
         <v>1325083</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>379</v>
       </c>
@@ -5218,7 +5231,7 @@
         <v>1325108</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>380</v>
       </c>
@@ -5226,7 +5239,7 @@
         <v>1325209</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>381</v>
       </c>
@@ -5234,7 +5247,7 @@
         <v>1325274</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>7</v>
       </c>
@@ -5242,7 +5255,7 @@
         <v>1325774</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>382</v>
       </c>
@@ -5250,7 +5263,7 @@
         <v>1325214</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>383</v>
       </c>
@@ -5258,7 +5271,7 @@
         <v>1325286</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>384</v>
       </c>
@@ -5266,7 +5279,7 @@
         <v>1325082</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>385</v>
       </c>
@@ -5274,7 +5287,7 @@
         <v>1325099</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>386</v>
       </c>
@@ -5282,7 +5295,7 @@
         <v>1325169</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>387</v>
       </c>
@@ -5290,7 +5303,7 @@
         <v>1325147</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>388</v>
       </c>
@@ -5298,7 +5311,7 @@
         <v>1325174</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>389</v>
       </c>
@@ -5306,7 +5319,7 @@
         <v>1325229</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>390</v>
       </c>
@@ -5314,7 +5327,7 @@
         <v>1325321</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>391</v>
       </c>
@@ -5322,7 +5335,7 @@
         <v>1325085</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>392</v>
       </c>
@@ -5330,7 +5343,7 @@
         <v>1325191</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>393</v>
       </c>
@@ -5338,7 +5351,7 @@
         <v>1325119</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>371</v>
       </c>
@@ -5346,7 +5359,7 @@
         <v>1325224</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>394</v>
       </c>
@@ -5354,7 +5367,7 @@
         <v>1325097</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>395</v>
       </c>
@@ -5362,7 +5375,7 @@
         <v>1325266</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>221</v>
       </c>
@@ -5370,7 +5383,7 @@
         <v>1324830</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>396</v>
       </c>
@@ -5378,7 +5391,7 @@
         <v>1324884</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>397</v>
       </c>
@@ -5386,7 +5399,7 @@
         <v>1324835</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>398</v>
       </c>
@@ -5394,7 +5407,7 @@
         <v>1324915</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>399</v>
       </c>
@@ -5402,7 +5415,7 @@
         <v>1324878</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>400</v>
       </c>
@@ -5410,7 +5423,7 @@
         <v>1324978</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>401</v>
       </c>
@@ -5418,7 +5431,7 @@
         <v>1324854</v>
       </c>
     </row>
-    <row r="421" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>402</v>
       </c>
@@ -5426,7 +5439,7 @@
         <v>1325062</v>
       </c>
     </row>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>403</v>
       </c>
@@ -5434,7 +5447,7 @@
         <v>1324977</v>
       </c>
     </row>
-    <row r="423" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>404</v>
       </c>
@@ -5442,7 +5455,7 @@
         <v>1324914</v>
       </c>
     </row>
-    <row r="424" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>405</v>
       </c>
@@ -5450,7 +5463,7 @@
         <v>1324832</v>
       </c>
     </row>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>406</v>
       </c>
@@ -5458,7 +5471,7 @@
         <v>1325014</v>
       </c>
     </row>
-    <row r="426" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>407</v>
       </c>
@@ -5466,7 +5479,7 @@
         <v>1324922</v>
       </c>
     </row>
-    <row r="427" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>408</v>
       </c>
@@ -5474,7 +5487,7 @@
         <v>1324992</v>
       </c>
     </row>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>409</v>
       </c>
@@ -5482,7 +5495,7 @@
         <v>1324899</v>
       </c>
     </row>
-    <row r="429" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>410</v>
       </c>
@@ -5490,7 +5503,7 @@
         <v>1324939</v>
       </c>
     </row>
-    <row r="430" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>305</v>
       </c>
@@ -5498,7 +5511,7 @@
         <v>1324839</v>
       </c>
     </row>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>41</v>
       </c>
@@ -5506,7 +5519,7 @@
         <v>1324888</v>
       </c>
     </row>
-    <row r="432" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>411</v>
       </c>
@@ -5514,7 +5527,7 @@
         <v>1325569</v>
       </c>
     </row>
-    <row r="433" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>412</v>
       </c>
@@ -5522,7 +5535,7 @@
         <v>1324889</v>
       </c>
     </row>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>413</v>
       </c>
@@ -5530,7 +5543,7 @@
         <v>1324882</v>
       </c>
     </row>
-    <row r="435" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>414</v>
       </c>
@@ -5538,7 +5551,7 @@
         <v>1324868</v>
       </c>
     </row>
-    <row r="436" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>415</v>
       </c>
@@ -5546,7 +5559,7 @@
         <v>1325748</v>
       </c>
     </row>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>416</v>
       </c>
@@ -5554,7 +5567,7 @@
         <v>1324836</v>
       </c>
     </row>
-    <row r="438" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>417</v>
       </c>
@@ -5562,7 +5575,7 @@
         <v>1324974</v>
       </c>
     </row>
-    <row r="439" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>418</v>
       </c>
@@ -5570,7 +5583,7 @@
         <v>1324932</v>
       </c>
     </row>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>419</v>
       </c>
@@ -5578,7 +5591,7 @@
         <v>1324833</v>
       </c>
     </row>
-    <row r="441" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>420</v>
       </c>
@@ -5586,7 +5599,7 @@
         <v>1324905</v>
       </c>
     </row>
-    <row r="442" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>421</v>
       </c>
@@ -5594,7 +5607,7 @@
         <v>1325519</v>
       </c>
     </row>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>422</v>
       </c>
@@ -5602,7 +5615,7 @@
         <v>1324918</v>
       </c>
     </row>
-    <row r="444" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>423</v>
       </c>
@@ -5610,7 +5623,7 @@
         <v>1324874</v>
       </c>
     </row>
-    <row r="445" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>424</v>
       </c>
@@ -5618,7 +5631,7 @@
         <v>1324976</v>
       </c>
     </row>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>425</v>
       </c>
@@ -5626,7 +5639,7 @@
         <v>1324920</v>
       </c>
     </row>
-    <row r="447" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>426</v>
       </c>
@@ -5634,7 +5647,7 @@
         <v>1325013</v>
       </c>
     </row>
-    <row r="448" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>427</v>
       </c>
@@ -5642,7 +5655,7 @@
         <v>1324936</v>
       </c>
     </row>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>428</v>
       </c>
@@ -5650,7 +5663,7 @@
         <v>1324972</v>
       </c>
     </row>
-    <row r="450" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>429</v>
       </c>
@@ -5658,7 +5671,7 @@
         <v>1324958</v>
       </c>
     </row>
-    <row r="451" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>267</v>
       </c>
@@ -5666,7 +5679,7 @@
         <v>1324881</v>
       </c>
     </row>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>430</v>
       </c>
@@ -5674,7 +5687,7 @@
         <v>1324965</v>
       </c>
     </row>
-    <row r="453" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>431</v>
       </c>
@@ -5682,7 +5695,7 @@
         <v>1324834</v>
       </c>
     </row>
-    <row r="454" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>67</v>
       </c>
@@ -5690,7 +5703,7 @@
         <v>1324904</v>
       </c>
     </row>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>432</v>
       </c>
@@ -5698,7 +5711,7 @@
         <v>1325242</v>
       </c>
     </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>433</v>
       </c>
@@ -5706,7 +5719,7 @@
         <v>1324885</v>
       </c>
     </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>434</v>
       </c>
@@ -5714,7 +5727,7 @@
         <v>1324840</v>
       </c>
     </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>435</v>
       </c>
@@ -5722,7 +5735,7 @@
         <v>1324883</v>
       </c>
     </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>436</v>
       </c>
@@ -5730,7 +5743,7 @@
         <v>1324879</v>
       </c>
     </row>
-    <row r="460" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>437</v>
       </c>
@@ -5738,7 +5751,7 @@
         <v>1325001</v>
       </c>
     </row>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>438</v>
       </c>
@@ -5746,7 +5759,7 @@
         <v>1325037</v>
       </c>
     </row>
-    <row r="462" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>439</v>
       </c>
@@ -5754,7 +5767,7 @@
         <v>1324919</v>
       </c>
     </row>
-    <row r="463" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>440</v>
       </c>
@@ -5762,7 +5775,7 @@
         <v>1325784</v>
       </c>
     </row>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>441</v>
       </c>
@@ -5770,7 +5783,7 @@
         <v>1324990</v>
       </c>
     </row>
-    <row r="465" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>442</v>
       </c>
@@ -5778,7 +5791,7 @@
         <v>1324857</v>
       </c>
     </row>
-    <row r="466" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>89</v>
       </c>
@@ -5786,7 +5799,7 @@
         <v>1325222</v>
       </c>
     </row>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>443</v>
       </c>
@@ -5794,7 +5807,7 @@
         <v>1325845</v>
       </c>
     </row>
-    <row r="468" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>444</v>
       </c>
@@ -5802,7 +5815,7 @@
         <v>1324877</v>
       </c>
     </row>
-    <row r="469" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>445</v>
       </c>
@@ -5810,7 +5823,7 @@
         <v>1324968</v>
       </c>
     </row>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>446</v>
       </c>
@@ -5818,7 +5831,7 @@
         <v>1324923</v>
       </c>
     </row>
-    <row r="471" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>447</v>
       </c>
@@ -5826,7 +5839,7 @@
         <v>1324971</v>
       </c>
     </row>
-    <row r="472" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>448</v>
       </c>
@@ -5834,7 +5847,7 @@
         <v>1325526</v>
       </c>
     </row>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>449</v>
       </c>
@@ -5842,7 +5855,7 @@
         <v>1325297</v>
       </c>
     </row>
-    <row r="474" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>450</v>
       </c>
@@ -5850,7 +5863,7 @@
         <v>1325007</v>
       </c>
     </row>
-    <row r="475" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>451</v>
       </c>
@@ -5858,7 +5871,7 @@
         <v>1324930</v>
       </c>
     </row>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>291</v>
       </c>
@@ -5866,7 +5879,7 @@
         <v>1324900</v>
       </c>
     </row>
-    <row r="477" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>452</v>
       </c>
@@ -5874,7 +5887,7 @@
         <v>1325561</v>
       </c>
     </row>
-    <row r="478" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>453</v>
       </c>
@@ -5882,7 +5895,7 @@
         <v>1324891</v>
       </c>
     </row>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>454</v>
       </c>
@@ -5890,7 +5903,7 @@
         <v>1324948</v>
       </c>
     </row>
-    <row r="480" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>455</v>
       </c>
@@ -5898,7 +5911,7 @@
         <v>1324890</v>
       </c>
     </row>
-    <row r="481" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>456</v>
       </c>
@@ -5906,7 +5919,7 @@
         <v>1324848</v>
       </c>
     </row>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>457</v>
       </c>
@@ -5914,7 +5927,7 @@
         <v>1324872</v>
       </c>
     </row>
-    <row r="483" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>458</v>
       </c>
@@ -5922,7 +5935,7 @@
         <v>1325545</v>
       </c>
     </row>
-    <row r="484" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>459</v>
       </c>
@@ -5930,7 +5943,7 @@
         <v>1324975</v>
       </c>
     </row>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>295</v>
       </c>
@@ -5938,7 +5951,7 @@
         <v>1325267</v>
       </c>
     </row>
-    <row r="486" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>460</v>
       </c>
@@ -5946,7 +5959,7 @@
         <v>1324894</v>
       </c>
     </row>
-    <row r="487" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>461</v>
       </c>
@@ -5954,7 +5967,7 @@
         <v>1324841</v>
       </c>
     </row>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>462</v>
       </c>
@@ -5962,7 +5975,7 @@
         <v>1324843</v>
       </c>
     </row>
-    <row r="489" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>463</v>
       </c>
@@ -5970,7 +5983,7 @@
         <v>1325019</v>
       </c>
     </row>
-    <row r="490" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>225</v>
       </c>
@@ -5978,7 +5991,7 @@
         <v>1324964</v>
       </c>
     </row>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>464</v>
       </c>
@@ -5986,7 +5999,7 @@
         <v>1324892</v>
       </c>
     </row>
-    <row r="492" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>465</v>
       </c>
@@ -5994,7 +6007,7 @@
         <v>1324906</v>
       </c>
     </row>
-    <row r="493" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>466</v>
       </c>
@@ -6002,7 +6015,7 @@
         <v>1324863</v>
       </c>
     </row>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>467</v>
       </c>
@@ -6010,7 +6023,7 @@
         <v>1324941</v>
       </c>
     </row>
-    <row r="495" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>468</v>
       </c>
@@ -6018,7 +6031,7 @@
         <v>1324895</v>
       </c>
     </row>
-    <row r="496" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>469</v>
       </c>
@@ -6026,7 +6039,7 @@
         <v>1325011</v>
       </c>
     </row>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>470</v>
       </c>
@@ -6034,7 +6047,7 @@
         <v>1324981</v>
       </c>
     </row>
-    <row r="498" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>471</v>
       </c>
@@ -6042,7 +6055,7 @@
         <v>1324916</v>
       </c>
     </row>
-    <row r="499" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>199</v>
       </c>
@@ -6050,7 +6063,7 @@
         <v>1324852</v>
       </c>
     </row>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>472</v>
       </c>
@@ -6058,7 +6071,7 @@
         <v>1324838</v>
       </c>
     </row>
-    <row r="501" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>473</v>
       </c>
@@ -6066,7 +6079,7 @@
         <v>1324942</v>
       </c>
     </row>
-    <row r="502" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>474</v>
       </c>
@@ -6074,7 +6087,7 @@
         <v>1325835</v>
       </c>
     </row>
-    <row r="503" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>475</v>
       </c>
@@ -6082,7 +6095,7 @@
         <v>1324983</v>
       </c>
     </row>
-    <row r="504" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>476</v>
       </c>
@@ -6090,7 +6103,7 @@
         <v>1324896</v>
       </c>
     </row>
-    <row r="505" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>477</v>
       </c>
@@ -6098,7 +6111,7 @@
         <v>1324887</v>
       </c>
     </row>
-    <row r="506" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>478</v>
       </c>
@@ -6106,7 +6119,7 @@
         <v>1324925</v>
       </c>
     </row>
-    <row r="507" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>479</v>
       </c>
@@ -6114,7 +6127,7 @@
         <v>1325128</v>
       </c>
     </row>
-    <row r="508" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
         <v>480</v>
       </c>
@@ -6122,7 +6135,7 @@
         <v>1324909</v>
       </c>
     </row>
-    <row r="509" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
         <v>481</v>
       </c>
@@ -6130,7 +6143,7 @@
         <v>1324984</v>
       </c>
     </row>
-    <row r="510" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
         <v>454</v>
       </c>
@@ -6138,7 +6151,7 @@
         <v>1324567</v>
       </c>
     </row>
-    <row r="511" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>482</v>
       </c>
@@ -6146,7 +6159,7 @@
         <v>1324537</v>
       </c>
     </row>
-    <row r="512" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>483</v>
       </c>
@@ -6154,7 +6167,7 @@
         <v>1324739</v>
       </c>
     </row>
-    <row r="513" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>484</v>
       </c>
@@ -6162,7 +6175,7 @@
         <v>1324558</v>
       </c>
     </row>
-    <row r="514" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>485</v>
       </c>
@@ -6170,7 +6183,7 @@
         <v>1324607</v>
       </c>
     </row>
-    <row r="515" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>486</v>
       </c>
@@ -6178,7 +6191,7 @@
         <v>1324578</v>
       </c>
     </row>
-    <row r="516" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>335</v>
       </c>
@@ -6186,7 +6199,7 @@
         <v>1325761</v>
       </c>
     </row>
-    <row r="517" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>487</v>
       </c>
@@ -6194,7 +6207,7 @@
         <v>1324553</v>
       </c>
     </row>
-    <row r="518" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>408</v>
       </c>
@@ -6202,7 +6215,7 @@
         <v>1324993</v>
       </c>
     </row>
-    <row r="519" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>488</v>
       </c>
@@ -6210,7 +6223,7 @@
         <v>1324950</v>
       </c>
     </row>
-    <row r="520" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>489</v>
       </c>
@@ -6218,7 +6231,7 @@
         <v>1324611</v>
       </c>
     </row>
-    <row r="521" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
         <v>490</v>
       </c>
@@ -6226,7 +6239,7 @@
         <v>1326029</v>
       </c>
     </row>
-    <row r="522" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
         <v>491</v>
       </c>
@@ -6234,7 +6247,7 @@
         <v>1324528</v>
       </c>
     </row>
-    <row r="523" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
         <v>492</v>
       </c>
@@ -6242,7 +6255,7 @@
         <v>1324550</v>
       </c>
     </row>
-    <row r="524" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
         <v>493</v>
       </c>
@@ -6250,7 +6263,7 @@
         <v>1324743</v>
       </c>
     </row>
-    <row r="525" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
         <v>494</v>
       </c>
@@ -6258,7 +6271,7 @@
         <v>1324570</v>
       </c>
     </row>
-    <row r="526" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
         <v>495</v>
       </c>
@@ -6266,7 +6279,7 @@
         <v>1324742</v>
       </c>
     </row>
-    <row r="527" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
         <v>496</v>
       </c>
@@ -6274,7 +6287,7 @@
         <v>1324844</v>
       </c>
     </row>
-    <row r="528" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
         <v>497</v>
       </c>
@@ -6282,7 +6295,7 @@
         <v>1324587</v>
       </c>
     </row>
-    <row r="529" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
         <v>53</v>
       </c>
@@ -6290,7 +6303,7 @@
         <v>1324503</v>
       </c>
     </row>
-    <row r="530" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
         <v>498</v>
       </c>
@@ -6298,7 +6311,7 @@
         <v>1324788</v>
       </c>
     </row>
-    <row r="531" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
         <v>499</v>
       </c>
@@ -6306,7 +6319,7 @@
         <v>1324576</v>
       </c>
     </row>
-    <row r="532" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
         <v>500</v>
       </c>
@@ -6314,7 +6327,7 @@
         <v>1324787</v>
       </c>
     </row>
-    <row r="533" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
         <v>501</v>
       </c>
@@ -6322,7 +6335,7 @@
         <v>1324592</v>
       </c>
     </row>
-    <row r="534" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
         <v>117</v>
       </c>
@@ -6330,7 +6343,7 @@
         <v>1324555</v>
       </c>
     </row>
-    <row r="535" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
         <v>502</v>
       </c>
@@ -6338,7 +6351,7 @@
         <v>1324547</v>
       </c>
     </row>
-    <row r="536" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
         <v>503</v>
       </c>
@@ -6346,7 +6359,7 @@
         <v>1324573</v>
       </c>
     </row>
-    <row r="537" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
         <v>104</v>
       </c>
@@ -6354,7 +6367,7 @@
         <v>1324579</v>
       </c>
     </row>
-    <row r="538" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
         <v>504</v>
       </c>
@@ -6362,7 +6375,7 @@
         <v>1324790</v>
       </c>
     </row>
-    <row r="539" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
         <v>458</v>
       </c>
@@ -6370,7 +6383,7 @@
         <v>1325543</v>
       </c>
     </row>
-    <row r="540" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
         <v>505</v>
       </c>
@@ -6378,7 +6391,7 @@
         <v>1324581</v>
       </c>
     </row>
-    <row r="541" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
         <v>506</v>
       </c>
@@ -6386,7 +6399,7 @@
         <v>1324572</v>
       </c>
     </row>
-    <row r="542" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
         <v>507</v>
       </c>
@@ -6394,7 +6407,7 @@
         <v>1324738</v>
       </c>
     </row>
-    <row r="543" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
         <v>422</v>
       </c>
@@ -6402,7 +6415,7 @@
         <v>1324606</v>
       </c>
     </row>
-    <row r="544" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
         <v>508</v>
       </c>
@@ -6410,7 +6423,7 @@
         <v>1324672</v>
       </c>
     </row>
-    <row r="545" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
         <v>509</v>
       </c>
@@ -6418,7 +6431,7 @@
         <v>1324688</v>
       </c>
     </row>
-    <row r="546" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
         <v>222</v>
       </c>
@@ -6426,7 +6439,7 @@
         <v>1324632</v>
       </c>
     </row>
-    <row r="547" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
         <v>510</v>
       </c>
@@ -6434,7 +6447,7 @@
         <v>1324686</v>
       </c>
     </row>
-    <row r="548" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
         <v>281</v>
       </c>
@@ -6442,7 +6455,7 @@
         <v>1324552</v>
       </c>
     </row>
-    <row r="549" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
         <v>511</v>
       </c>
@@ -6450,7 +6463,7 @@
         <v>1324566</v>
       </c>
     </row>
-    <row r="550" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
         <v>21</v>
       </c>
@@ -6458,7 +6471,7 @@
         <v>1324551</v>
       </c>
     </row>
-    <row r="551" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
         <v>512</v>
       </c>
@@ -6466,7 +6479,7 @@
         <v>1324585</v>
       </c>
     </row>
-    <row r="552" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>249</v>
       </c>
@@ -6474,7 +6487,7 @@
         <v>1325699</v>
       </c>
     </row>
-    <row r="553" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>513</v>
       </c>
@@ -6482,7 +6495,7 @@
         <v>1324765</v>
       </c>
     </row>
-    <row r="554" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
         <v>297</v>
       </c>
@@ -6490,7 +6503,7 @@
         <v>1325157</v>
       </c>
     </row>
-    <row r="555" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
         <v>514</v>
       </c>
@@ -6498,7 +6511,7 @@
         <v>1324685</v>
       </c>
     </row>
-    <row r="556" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>515</v>
       </c>
@@ -6506,7 +6519,7 @@
         <v>1324565</v>
       </c>
     </row>
-    <row r="557" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>344</v>
       </c>
@@ -6514,7 +6527,7 @@
         <v>1324792</v>
       </c>
     </row>
-    <row r="558" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>294</v>
       </c>
@@ -6522,7 +6535,7 @@
         <v>1324766</v>
       </c>
     </row>
-    <row r="559" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>516</v>
       </c>
@@ -6530,7 +6543,7 @@
         <v>1324901</v>
       </c>
     </row>
-    <row r="560" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
         <v>517</v>
       </c>
@@ -6538,7 +6551,7 @@
         <v>1324545</v>
       </c>
     </row>
-    <row r="561" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
         <v>518</v>
       </c>
@@ -6546,7 +6559,7 @@
         <v>1324589</v>
       </c>
     </row>
-    <row r="562" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
         <v>492</v>
       </c>
@@ -6554,7 +6567,7 @@
         <v>1324549</v>
       </c>
     </row>
-    <row r="563" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
         <v>519</v>
       </c>
@@ -6562,7 +6575,7 @@
         <v>1325757</v>
       </c>
     </row>
-    <row r="564" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
         <v>520</v>
       </c>
@@ -6570,7 +6583,7 @@
         <v>1324793</v>
       </c>
     </row>
-    <row r="565" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
         <v>512</v>
       </c>
@@ -6578,7 +6591,7 @@
         <v>1324584</v>
       </c>
     </row>
-    <row r="566" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
         <v>521</v>
       </c>
@@ -6586,7 +6599,7 @@
         <v>1325801</v>
       </c>
     </row>
-    <row r="567" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
         <v>360</v>
       </c>
@@ -6594,7 +6607,7 @@
         <v>1324669</v>
       </c>
     </row>
-    <row r="568" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
         <v>522</v>
       </c>
@@ -6602,7 +6615,7 @@
         <v>1324516</v>
       </c>
     </row>
-    <row r="569" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
         <v>523</v>
       </c>
@@ -6610,7 +6623,7 @@
         <v>1324583</v>
       </c>
     </row>
-    <row r="570" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
         <v>524</v>
       </c>
@@ -6618,7 +6631,7 @@
         <v>1324496</v>
       </c>
     </row>
-    <row r="571" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
         <v>525</v>
       </c>
@@ -6626,7 +6639,7 @@
         <v>1324508</v>
       </c>
     </row>
-    <row r="572" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
         <v>526</v>
       </c>
@@ -6634,7 +6647,7 @@
         <v>1324502</v>
       </c>
     </row>
-    <row r="573" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
         <v>234</v>
       </c>
@@ -6642,7 +6655,7 @@
         <v>1324786</v>
       </c>
     </row>
-    <row r="574" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
         <v>527</v>
       </c>
@@ -6650,7 +6663,7 @@
         <v>1324634</v>
       </c>
     </row>
-    <row r="575" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
         <v>528</v>
       </c>
@@ -6658,7 +6671,7 @@
         <v>1324582</v>
       </c>
     </row>
-    <row r="576" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
         <v>360</v>
       </c>
@@ -6666,7 +6679,7 @@
         <v>1324668</v>
       </c>
     </row>
-    <row r="577" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
         <v>529</v>
       </c>
@@ -6674,7 +6687,7 @@
         <v>1324807</v>
       </c>
     </row>
-    <row r="578" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
         <v>530</v>
       </c>
@@ -6682,7 +6695,7 @@
         <v>1325036</v>
       </c>
     </row>
-    <row r="579" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
         <v>261</v>
       </c>
@@ -6690,7 +6703,7 @@
         <v>1324609</v>
       </c>
     </row>
-    <row r="580" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
         <v>531</v>
       </c>
@@ -6698,7 +6711,7 @@
         <v>1324602</v>
       </c>
     </row>
-    <row r="581" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
         <v>532</v>
       </c>
@@ -6706,7 +6719,7 @@
         <v>1324670</v>
       </c>
     </row>
-    <row r="582" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
         <v>279</v>
       </c>
@@ -6714,7 +6727,7 @@
         <v>1324604</v>
       </c>
     </row>
-    <row r="583" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
         <v>533</v>
       </c>
@@ -6722,7 +6735,7 @@
         <v>1324731</v>
       </c>
     </row>
-    <row r="584" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
         <v>534</v>
       </c>
@@ -6730,7 +6743,7 @@
         <v>1324542</v>
       </c>
     </row>
-    <row r="585" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
         <v>535</v>
       </c>
@@ -6738,7 +6751,7 @@
         <v>1324590</v>
       </c>
     </row>
-    <row r="586" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
         <v>536</v>
       </c>
@@ -6746,7 +6759,7 @@
         <v>1324493</v>
       </c>
     </row>
-    <row r="587" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
         <v>265</v>
       </c>
@@ -6754,7 +6767,7 @@
         <v>1324620</v>
       </c>
     </row>
-    <row r="588" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
         <v>537</v>
       </c>
@@ -6762,7 +6775,7 @@
         <v>1324603</v>
       </c>
     </row>
-    <row r="589" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
         <v>538</v>
       </c>
@@ -6770,7 +6783,7 @@
         <v>1324683</v>
       </c>
     </row>
-    <row r="590" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
         <v>539</v>
       </c>
@@ -6778,7 +6791,7 @@
         <v>1325455</v>
       </c>
     </row>
-    <row r="591" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>540</v>
       </c>
@@ -6786,7 +6799,7 @@
         <v>1324633</v>
       </c>
     </row>
-    <row r="592" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
         <v>541</v>
       </c>
@@ -6794,7 +6807,7 @@
         <v>1324504</v>
       </c>
     </row>
-    <row r="593" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>542</v>
       </c>
@@ -6802,7 +6815,7 @@
         <v>1324744</v>
       </c>
     </row>
-    <row r="594" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>543</v>
       </c>
@@ -6810,7 +6823,7 @@
         <v>1324621</v>
       </c>
     </row>
-    <row r="595" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>544</v>
       </c>
@@ -6818,7 +6831,7 @@
         <v>1324674</v>
       </c>
     </row>
-    <row r="596" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>370</v>
       </c>
@@ -6826,7 +6839,7 @@
         <v>1324536</v>
       </c>
     </row>
-    <row r="597" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>338</v>
       </c>
@@ -6834,7 +6847,7 @@
         <v>1324569</v>
       </c>
     </row>
-    <row r="598" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
         <v>545</v>
       </c>
@@ -6842,7 +6855,7 @@
         <v>1324511</v>
       </c>
     </row>
-    <row r="599" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
         <v>179</v>
       </c>
@@ -6850,7 +6863,7 @@
         <v>1324605</v>
       </c>
     </row>
-    <row r="600" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
         <v>546</v>
       </c>
@@ -6858,7 +6871,7 @@
         <v>1324789</v>
       </c>
     </row>
-    <row r="601" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
         <v>122</v>
       </c>
@@ -6866,7 +6879,7 @@
         <v>1324575</v>
       </c>
     </row>
-    <row r="602" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
         <v>54</v>
       </c>
@@ -6874,7 +6887,7 @@
         <v>1325727</v>
       </c>
     </row>
-    <row r="603" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
         <v>547</v>
       </c>
@@ -6882,7 +6895,7 @@
         <v>1324727</v>
       </c>
     </row>
-    <row r="604" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
         <v>208</v>
       </c>
@@ -6890,7 +6903,7 @@
         <v>1324996</v>
       </c>
     </row>
-    <row r="605" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
         <v>338</v>
       </c>
@@ -6898,7 +6911,7 @@
         <v>1324568</v>
       </c>
     </row>
-    <row r="606" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
         <v>548</v>
       </c>
@@ -6906,7 +6919,7 @@
         <v>1324709</v>
       </c>
     </row>
-    <row r="607" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
         <v>549</v>
       </c>
@@ -6914,7 +6927,7 @@
         <v>1324643</v>
       </c>
     </row>
-    <row r="608" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
         <v>550</v>
       </c>
@@ -6922,7 +6935,7 @@
         <v>1324557</v>
       </c>
     </row>
-    <row r="609" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
         <v>551</v>
       </c>
@@ -6930,7 +6943,7 @@
         <v>1324667</v>
       </c>
     </row>
-    <row r="610" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
         <v>552</v>
       </c>
@@ -6938,7 +6951,7 @@
         <v>1324822</v>
       </c>
     </row>
-    <row r="611" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
         <v>553</v>
       </c>
